--- a/Assets/ExcelData/Stage/StageEnemyList.xlsx
+++ b/Assets/ExcelData/Stage/StageEnemyList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t xml:space="preserve">Time</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">AppearRotateY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsBoss</t>
   </si>
   <si>
     <t xml:space="preserve">OtherParameters</t>
@@ -165,10 +168,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -210,6 +213,9 @@
       <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -242,8 +248,11 @@
       <c r="J2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>11</v>
+      <c r="K2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -254,7 +263,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0</v>
@@ -277,8 +286,11 @@
       <c r="J3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>11</v>
+      <c r="K3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelData/Stage/StageEnemyList.xlsx
+++ b/Assets/ExcelData/Stage/StageEnemyList.xlsx
@@ -168,10 +168,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
+      <selection pane="topLeft" activeCell="J32" activeCellId="0" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -219,7 +219,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -246,7 +246,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>0</v>
@@ -257,19 +257,19 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0.6</v>
+        <v>0.38</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -278,19 +278,999 @@
         <v>0</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>-10</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>-10</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>-10</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>-10</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>-45</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>-135</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
